--- a/Raw_Data/Decision_Making_Factors.xlsx
+++ b/Raw_Data/Decision_Making_Factors.xlsx
@@ -7,22 +7,24 @@
     <sheet state="visible" name="Series - Metadata" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_896DE004_8779_4580_86D5_0E4ECEAA9D97_.wvu.FilterData">Data!$A$1:$T$262</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_20322716_6744_45A6_99D3_B61CF8BC0F25_.wvu.FilterData">Data!$A$1:$T$253</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_45E78D6B_A4A9_4F00_8FEA_B2E59FF8FD30_.wvu.FilterData">Data!$A$1:$T$253</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{896DE004-8779-4580-86D5-0E4ECEAA9D97}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{20322716-6744-45A6-99D3-B61CF8BC0F25}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{45E78D6B-A4A9-4F00-8FEA-B2E59FF8FD30}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjMBccXmcEnzQ7nQ3IFVSGz0asEHA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgydVQJg3e8NInWXKshqrB1pSBvBA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="194">
   <si>
     <t>Series Name</t>
   </si>
@@ -234,10 +236,10 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>IC.REG.PROC.FE</t>
   </si>
   <si>
     <t>Tanzania</t>
@@ -298,12 +300,6 @@
   </si>
   <si>
     <t>SE.TER.ENRR.FE</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>IC.REG.PROC.FE</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
@@ -701,6 +697,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -709,9 +708,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2489,64 +2485,64 @@
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
-        <v>2.82999992370605</v>
+        <v>13.0</v>
       </c>
       <c r="F26" s="1">
-        <v>2.86999988555908</v>
+        <v>13.0</v>
       </c>
       <c r="G26" s="1">
-        <v>2.86999988555908</v>
+        <v>15.0</v>
       </c>
       <c r="H26" s="1">
-        <v>2.83999991416931</v>
+        <v>15.0</v>
       </c>
       <c r="I26" s="1">
-        <v>2.92000007629395</v>
+        <v>14.0</v>
       </c>
       <c r="J26" s="1">
-        <v>2.85999989509583</v>
+        <v>15.0</v>
       </c>
       <c r="K26" s="1">
-        <v>2.79999995231628</v>
+        <v>15.0</v>
       </c>
       <c r="L26" s="1">
-        <v>2.78999996185303</v>
+        <v>14.0</v>
       </c>
       <c r="M26" s="1">
-        <v>2.80999994277954</v>
+        <v>14.0</v>
       </c>
       <c r="N26" s="1">
-        <v>2.78999996185303</v>
+        <v>13.0</v>
       </c>
       <c r="O26" s="1">
-        <v>2.83999991416931</v>
+        <v>13.0</v>
       </c>
       <c r="P26" s="1">
-        <v>2.94000005722046</v>
+        <v>13.0</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.78999996185303</v>
+        <v>13.0</v>
       </c>
       <c r="R26" s="1">
-        <v>2.72000002861023</v>
+        <v>9.0</v>
       </c>
       <c r="S26" s="1">
-        <v>2.88000011444092</v>
+        <v>7.0</v>
       </c>
       <c r="T26" s="1">
-        <v>2.98000001907349</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -3094,12 +3090,6 @@
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F41" s="1">
         <v>86.7995910644531</v>
       </c>
@@ -3136,10 +3126,10 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1">
         <v>84.7139205932617</v>
@@ -3171,10 +3161,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I43" s="1">
         <v>66.8631210327148</v>
@@ -3194,10 +3184,10 @@
         <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44" s="1">
         <v>84.9639587402344</v>
@@ -3214,10 +3204,10 @@
         <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I45" s="1">
         <v>27.0349102020264</v>
@@ -3234,10 +3224,10 @@
         <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L46" s="1">
         <v>51.2519683837891</v>
@@ -3257,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1">
         <v>15.8999996185303</v>
@@ -3289,10 +3279,10 @@
         <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1">
         <v>33.1939582824707</v>
@@ -3480,25 +3470,64 @@
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9.0</v>
       </c>
       <c r="F55" s="1">
-        <v>24.1589298248291</v>
+        <v>9.0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>7.0</v>
       </c>
       <c r="O55" s="1">
-        <v>24.8566799163818</v>
+        <v>7.0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>7.0</v>
       </c>
       <c r="T55" s="1">
-        <v>34.8520317077637</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
@@ -5041,64 +5070,55 @@
     </row>
     <row r="84" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="1">
-        <v>14.5161290322581</v>
-      </c>
-      <c r="F84" s="1">
-        <v>14.5161290322581</v>
-      </c>
-      <c r="G84" s="1">
-        <v>14.5161290322581</v>
+        <v>51</v>
       </c>
       <c r="H84" s="1">
-        <v>14.5161290322581</v>
+        <v>11.0</v>
       </c>
       <c r="I84" s="1">
-        <v>13.2231404958678</v>
+        <v>11.0</v>
       </c>
       <c r="J84" s="1">
-        <v>13.2231404958678</v>
+        <v>7.0</v>
       </c>
       <c r="K84" s="1">
-        <v>13.2231404958678</v>
+        <v>6.0</v>
       </c>
       <c r="L84" s="1">
-        <v>13.2231404958678</v>
+        <v>6.0</v>
       </c>
       <c r="M84" s="1">
-        <v>12.9032258064516</v>
+        <v>5.0</v>
       </c>
       <c r="N84" s="1">
-        <v>12.396694214876</v>
+        <v>5.0</v>
       </c>
       <c r="O84" s="1">
-        <v>12.396694214876</v>
+        <v>5.0</v>
       </c>
       <c r="P84" s="1">
-        <v>12.0967741935484</v>
+        <v>5.0</v>
       </c>
       <c r="Q84" s="1">
-        <v>12.396694214876</v>
+        <v>5.0</v>
       </c>
       <c r="R84" s="1">
-        <v>12.396694214876</v>
+        <v>5.0</v>
       </c>
       <c r="S84" s="1">
-        <v>12.396694214876</v>
+        <v>5.0</v>
       </c>
       <c r="T84" s="1">
-        <v>12.3287671232877</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
@@ -6245,40 +6265,64 @@
     </row>
     <row r="113" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="E113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>10.0</v>
       </c>
       <c r="G113" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>10.0</v>
       </c>
       <c r="J113" s="1">
-        <v>14.3</v>
+        <v>10.0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>10.0</v>
       </c>
       <c r="L113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="P113" s="1">
         <v>8.0</v>
       </c>
-      <c r="N113" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="P113" s="1">
-        <v>10.3</v>
-      </c>
       <c r="Q113" s="1">
-        <v>6.9</v>
+        <v>8.0</v>
       </c>
       <c r="R113" s="1">
-        <v>13.8</v>
+        <v>7.0</v>
+      </c>
+      <c r="S113" s="1">
+        <v>7.0</v>
       </c>
       <c r="T113" s="1">
-        <v>18.5</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
@@ -6499,6 +6543,9 @@
       <c r="J119" s="1">
         <v>93.66587</v>
       </c>
+      <c r="N119" s="3">
+        <v>96.34</v>
+      </c>
     </row>
     <row r="120" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
@@ -7061,6 +7108,9 @@
       <c r="I133" s="1">
         <v>97.08693</v>
       </c>
+      <c r="P133" s="3">
+        <v>98.0</v>
+      </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
       <c r="A134" s="1" t="s">
@@ -7401,22 +7451,64 @@
     </row>
     <row r="142" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="E142" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>4.0</v>
       </c>
       <c r="N142" s="1">
-        <v>94.2679</v>
+        <v>4.0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P142" s="1">
+        <v>5.0</v>
       </c>
       <c r="Q142" s="1">
-        <v>95.49615</v>
+        <v>5.0</v>
+      </c>
+      <c r="R142" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S142" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="T142" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1">
@@ -7555,6 +7647,9 @@
       <c r="E146" s="1">
         <v>89.42919</v>
       </c>
+      <c r="Q146" s="3">
+        <v>94.0</v>
+      </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
@@ -8303,48 +8398,48 @@
       <c r="D166" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4">
+      <c r="E166" s="4"/>
+      <c r="F166" s="5">
         <v>31.02017</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="5">
         <v>31.68093</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="5">
         <v>30.90784</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I166" s="5">
         <v>27.67871</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="5">
         <v>32.13258</v>
       </c>
-      <c r="K166" s="4">
+      <c r="K166" s="5">
         <v>36.4467</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L166" s="5">
         <v>41.19099</v>
       </c>
-      <c r="M166" s="4">
+      <c r="M166" s="5">
         <v>41.88799</v>
       </c>
-      <c r="N166" s="4">
+      <c r="N166" s="5">
         <v>44.95111</v>
       </c>
-      <c r="O166" s="4">
+      <c r="O166" s="5">
         <v>53.51221</v>
       </c>
-      <c r="P166" s="4">
+      <c r="P166" s="5">
         <v>43.00582</v>
       </c>
-      <c r="Q166" s="4">
+      <c r="Q166" s="5">
         <v>44.67198</v>
       </c>
-      <c r="R166" s="4">
+      <c r="R166" s="5">
         <v>39.82974</v>
       </c>
-      <c r="S166" s="5"/>
-      <c r="T166" s="4">
+      <c r="S166" s="6"/>
+      <c r="T166" s="5">
         <v>42.41155</v>
       </c>
     </row>
@@ -8499,28 +8594,64 @@
     </row>
     <row r="171" ht="13.5" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E171" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G171" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K171" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="L171" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M171" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>10.0</v>
       </c>
       <c r="O171" s="1">
-        <v>31.35355</v>
+        <v>10.0</v>
+      </c>
+      <c r="P171" s="1">
+        <v>10.0</v>
       </c>
       <c r="Q171" s="1">
-        <v>31.34342</v>
+        <v>10.0</v>
+      </c>
+      <c r="R171" s="1">
+        <v>10.0</v>
       </c>
       <c r="S171" s="1">
-        <v>38.12873</v>
+        <v>10.0</v>
       </c>
       <c r="T171" s="1">
-        <v>41.00903</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="172" ht="13.5" customHeight="1">
@@ -8582,8 +8713,11 @@
       <c r="D174" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K174" s="6">
+      <c r="K174" s="3">
         <v>42.9</v>
+      </c>
+      <c r="R174" s="3">
+        <v>48.0</v>
       </c>
     </row>
     <row r="175" ht="13.5" customHeight="1">
@@ -9802,16 +9936,64 @@
     </row>
     <row r="200" ht="13.5" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="E200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="P200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="R200" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="S200" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="T200" s="1">
+        <v>8.0</v>
       </c>
     </row>
     <row r="201" ht="13.5" customHeight="1">
@@ -9965,10 +10147,10 @@
     </row>
     <row r="205" ht="13.5" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>22</v>
@@ -10027,10 +10209,10 @@
     </row>
     <row r="206" ht="13.5" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>24</v>
@@ -10059,10 +10241,10 @@
     </row>
     <row r="207" ht="13.5" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>26</v>
@@ -10121,10 +10303,10 @@
     </row>
     <row r="208" ht="13.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>28</v>
@@ -10183,10 +10365,10 @@
     </row>
     <row r="209" ht="13.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>30</v>
@@ -10245,10 +10427,10 @@
     </row>
     <row r="210" ht="13.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>32</v>
@@ -10307,10 +10489,10 @@
     </row>
     <row r="211" ht="13.5" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
@@ -10369,10 +10551,10 @@
     </row>
     <row r="212" ht="13.5" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>36</v>
@@ -10431,10 +10613,10 @@
     </row>
     <row r="213" ht="13.5" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>38</v>
@@ -10493,10 +10675,10 @@
     </row>
     <row r="214" ht="13.5" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>40</v>
@@ -10555,10 +10737,10 @@
     </row>
     <row r="215" ht="13.5" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>42</v>
@@ -10587,10 +10769,10 @@
     </row>
     <row r="216" ht="13.5" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>44</v>
@@ -10649,78 +10831,78 @@
     </row>
     <row r="217" ht="13.5" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E217" s="1">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="F217" s="1">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="G217" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H217" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="I217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="K217" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="L217" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="M217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="N217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="O217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="P217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="R217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="S217" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="T217" s="1">
         <v>14.0</v>
-      </c>
-      <c r="J217" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="K217" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="L217" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="M217" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="N217" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="O217" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="P217" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="Q217" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="R217" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="S217" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="T217" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="218" ht="13.5" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E218" s="1">
         <v>9.0</v>
@@ -10732,22 +10914,22 @@
         <v>9.0</v>
       </c>
       <c r="H218" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J218" s="1">
         <v>8.0</v>
       </c>
-      <c r="I218" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="J218" s="1">
-        <v>7.0</v>
-      </c>
       <c r="K218" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L218" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="M218" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="N218" s="1">
         <v>7.0</v>
@@ -10756,33 +10938,42 @@
         <v>7.0</v>
       </c>
       <c r="P218" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q218" s="1">
         <v>7.0</v>
       </c>
       <c r="R218" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="S218" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="T218" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="219" ht="13.5" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="E219" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G219" s="1">
+        <v>11.0</v>
       </c>
       <c r="H219" s="1">
         <v>11.0</v>
@@ -10791,237 +10982,207 @@
         <v>11.0</v>
       </c>
       <c r="J219" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K219" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L219" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="M219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="N219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="R219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="S219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T219" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="220" ht="13.5" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="H220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="K220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M220" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="N220" s="1">
-        <v>10.0</v>
+        <v>61</v>
       </c>
       <c r="O220" s="1">
-        <v>10.0</v>
+        <v>8.46</v>
       </c>
       <c r="P220" s="1">
-        <v>8.0</v>
+        <v>8.46</v>
       </c>
       <c r="Q220" s="1">
-        <v>8.0</v>
+        <v>8.46</v>
       </c>
       <c r="R220" s="1">
-        <v>7.0</v>
+        <v>8.46</v>
       </c>
       <c r="S220" s="1">
-        <v>7.0</v>
+        <v>8.46</v>
       </c>
       <c r="T220" s="1">
-        <v>7.0</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="221" ht="13.5" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E221" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I221" s="1">
         <v>12.0</v>
       </c>
-      <c r="F221" s="1">
+      <c r="J221" s="1">
         <v>12.0</v>
       </c>
-      <c r="G221" s="1">
+      <c r="K221" s="1">
         <v>12.0</v>
       </c>
-      <c r="H221" s="1">
+      <c r="L221" s="1">
         <v>12.0</v>
       </c>
-      <c r="I221" s="1">
+      <c r="M221" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="N221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="O221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="P221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="R221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="S221" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="T221" s="1">
         <v>10.0</v>
-      </c>
-      <c r="J221" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="K221" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="L221" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M221" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="N221" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="O221" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="P221" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="Q221" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R221" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S221" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="T221" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="222" ht="13.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E222" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F222" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G222" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="H222" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="K222" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="L222" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="M222" s="1">
         <v>14.0</v>
       </c>
-      <c r="I222" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="J222" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="K222" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="L222" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M222" s="1">
-        <v>10.0</v>
-      </c>
       <c r="N222" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="O222" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="P222" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q222" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="R222" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="S222" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="T222" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="223" ht="13.5" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E223" s="1">
         <v>7.0</v>
@@ -11051,7 +11212,7 @@
         <v>7.0</v>
       </c>
       <c r="N223" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O223" s="1">
         <v>7.0</v>
@@ -11066,42 +11227,72 @@
         <v>7.0</v>
       </c>
       <c r="S223" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="T223" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="224" ht="13.5" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="E224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M224" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N224" s="1">
+        <v>10.0</v>
       </c>
       <c r="O224" s="1">
-        <v>8.46</v>
+        <v>10.0</v>
       </c>
       <c r="P224" s="1">
-        <v>8.46</v>
+        <v>10.0</v>
       </c>
       <c r="Q224" s="1">
-        <v>8.46</v>
+        <v>10.0</v>
       </c>
       <c r="R224" s="1">
-        <v>8.46</v>
+        <v>10.0</v>
       </c>
       <c r="S224" s="1">
-        <v>8.46</v>
+        <v>9.0</v>
       </c>
       <c r="T224" s="1">
-        <v>8.46</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="225" ht="13.5" customHeight="1">
@@ -11112,34 +11303,34 @@
         <v>93</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E225" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="F225" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="G225" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="H225" s="1">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="I225" s="1">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="J225" s="1">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="K225" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="L225" s="1">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="M225" s="1">
         <v>8.0</v>
@@ -11148,22 +11339,22 @@
         <v>8.0</v>
       </c>
       <c r="O225" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="P225" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q225" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="R225" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="S225" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="T225" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="226" ht="13.5" customHeight="1">
@@ -11174,58 +11365,28 @@
         <v>93</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="F226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="G226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="H226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="I226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="J226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="K226" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="L226" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="M226" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="N226" s="1">
-        <v>17.0</v>
+        <v>25</v>
       </c>
       <c r="O226" s="1">
-        <v>17.0</v>
+        <v>21.84</v>
       </c>
       <c r="P226" s="1">
-        <v>17.0</v>
+        <v>19.5</v>
       </c>
       <c r="Q226" s="1">
-        <v>17.0</v>
+        <v>19.5</v>
       </c>
       <c r="R226" s="1">
-        <v>17.0</v>
+        <v>19.5</v>
       </c>
       <c r="S226" s="1">
-        <v>17.0</v>
+        <v>19.5</v>
       </c>
       <c r="T226" s="1">
-        <v>14.0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="227" ht="13.5" customHeight="1">
@@ -11236,58 +11397,58 @@
         <v>93</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E227" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="K227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="L227" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="M227" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="N227" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O227" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="P227" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="Q227" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="R227" s="1">
         <v>9.0</v>
       </c>
-      <c r="F227" s="1">
+      <c r="S227" s="1">
         <v>9.0</v>
       </c>
-      <c r="G227" s="1">
+      <c r="T227" s="1">
         <v>9.0</v>
-      </c>
-      <c r="H227" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="I227" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="J227" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K227" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="L227" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="M227" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="N227" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="O227" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P227" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="Q227" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="R227" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S227" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="T227" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="228" ht="13.5" customHeight="1">
@@ -11298,58 +11459,58 @@
         <v>93</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E228" s="1">
-        <v>11.0</v>
+        <v>95.0</v>
       </c>
       <c r="F228" s="1">
-        <v>11.0</v>
+        <v>95.0</v>
       </c>
       <c r="G228" s="1">
-        <v>11.0</v>
+        <v>87.0</v>
       </c>
       <c r="H228" s="1">
-        <v>11.0</v>
+        <v>86.0</v>
       </c>
       <c r="I228" s="1">
-        <v>11.0</v>
+        <v>86.0</v>
       </c>
       <c r="J228" s="1">
-        <v>5.0</v>
+        <v>102.0</v>
       </c>
       <c r="K228" s="1">
-        <v>5.0</v>
+        <v>102.0</v>
       </c>
       <c r="L228" s="1">
-        <v>5.0</v>
+        <v>102.0</v>
       </c>
       <c r="M228" s="1">
-        <v>4.0</v>
+        <v>102.0</v>
       </c>
       <c r="N228" s="1">
-        <v>4.0</v>
+        <v>102.0</v>
       </c>
       <c r="O228" s="1">
-        <v>4.0</v>
+        <v>101.0</v>
       </c>
       <c r="P228" s="1">
-        <v>4.0</v>
+        <v>101.0</v>
       </c>
       <c r="Q228" s="1">
-        <v>4.0</v>
+        <v>87.0</v>
       </c>
       <c r="R228" s="1">
-        <v>4.0</v>
+        <v>99.0</v>
       </c>
       <c r="S228" s="1">
-        <v>4.0</v>
+        <v>99.0</v>
       </c>
       <c r="T228" s="1">
-        <v>4.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="229" ht="13.5" customHeight="1">
@@ -11360,58 +11521,58 @@
         <v>93</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E229" s="1">
-        <v>8.0</v>
+        <v>45.0</v>
       </c>
       <c r="F229" s="1">
-        <v>8.0</v>
+        <v>45.0</v>
       </c>
       <c r="G229" s="1">
-        <v>8.0</v>
+        <v>45.0</v>
       </c>
       <c r="H229" s="1">
-        <v>8.0</v>
+        <v>45.0</v>
       </c>
       <c r="I229" s="1">
-        <v>8.0</v>
+        <v>38.0</v>
       </c>
       <c r="J229" s="1">
-        <v>6.0</v>
+        <v>39.0</v>
       </c>
       <c r="K229" s="1">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
       <c r="L229" s="1">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="M229" s="1">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="N229" s="1">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="O229" s="1">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="P229" s="1">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q229" s="1">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="R229" s="1">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="S229" s="1">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="T229" s="1">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="230" ht="13.5" customHeight="1">
@@ -11422,49 +11583,49 @@
         <v>93</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E230" s="1">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="F230" s="1">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="G230" s="1">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="H230" s="1">
-        <v>13.0</v>
+        <v>42.0</v>
       </c>
       <c r="I230" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="K230" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M230" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="N230" s="1">
         <v>12.0</v>
       </c>
-      <c r="J230" s="1">
+      <c r="O230" s="1">
         <v>12.0</v>
       </c>
-      <c r="K230" s="1">
+      <c r="P230" s="1">
         <v>12.0</v>
       </c>
-      <c r="L230" s="1">
+      <c r="Q230" s="1">
         <v>12.0</v>
-      </c>
-      <c r="M230" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="N230" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="O230" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="P230" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="Q230" s="1">
-        <v>11.0</v>
       </c>
       <c r="R230" s="1">
         <v>11.0</v>
@@ -11473,7 +11634,7 @@
         <v>11.0</v>
       </c>
       <c r="T230" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="231" ht="13.5" customHeight="1">
@@ -11484,58 +11645,58 @@
         <v>93</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E231" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="G231" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="K231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="L231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="M231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="N231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="P231" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="Q231" s="1">
         <v>17.0</v>
       </c>
-      <c r="F231" s="1">
+      <c r="R231" s="1">
         <v>17.0</v>
       </c>
-      <c r="G231" s="1">
+      <c r="S231" s="1">
         <v>17.0</v>
       </c>
-      <c r="H231" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="I231" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="J231" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="K231" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="L231" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="M231" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="N231" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="O231" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="P231" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="Q231" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="R231" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="S231" s="1">
-        <v>13.0</v>
-      </c>
       <c r="T231" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="232" ht="13.5" customHeight="1">
@@ -11546,58 +11707,58 @@
         <v>93</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E232" s="1">
-        <v>7.0</v>
+        <v>47.0</v>
       </c>
       <c r="F232" s="1">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="G232" s="1">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="H232" s="1">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="I232" s="1">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="J232" s="1">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="K232" s="1">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="L232" s="1">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="M232" s="1">
-        <v>7.0</v>
+        <v>40.0</v>
       </c>
       <c r="N232" s="1">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="O232" s="1">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="P232" s="1">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="Q232" s="1">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="R232" s="1">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="S232" s="1">
-        <v>7.0</v>
+        <v>33.0</v>
       </c>
       <c r="T232" s="1">
-        <v>7.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="233" ht="13.5" customHeight="1">
@@ -11608,199 +11769,199 @@
         <v>93</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E233" s="1">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F233" s="1">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="G233" s="1">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H233" s="1">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="I233" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="J233" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K233" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L233" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M233" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N233" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O233" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="P233" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q233" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="R233" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="S233" s="1">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="T233" s="1">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="234" ht="13.5" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E234" s="1">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="F234" s="1">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="G234" s="1">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="H234" s="1">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="I234" s="1">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="J234" s="1">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="K234" s="1">
-        <v>14.0</v>
+        <v>40.0</v>
       </c>
       <c r="L234" s="1">
-        <v>14.0</v>
+        <v>40.0</v>
       </c>
       <c r="M234" s="1">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="N234" s="1">
-        <v>8.0</v>
+        <v>43.0</v>
       </c>
       <c r="O234" s="1">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="P234" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q234" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="R234" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="S234" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="T234" s="1">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="235" ht="13.5" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="O235" s="1">
-        <v>21.84</v>
+        <v>76.95</v>
       </c>
       <c r="P235" s="1">
-        <v>19.5</v>
+        <v>53.94</v>
       </c>
       <c r="Q235" s="1">
-        <v>19.5</v>
+        <v>49.26</v>
       </c>
       <c r="R235" s="1">
-        <v>19.5</v>
+        <v>26.3</v>
       </c>
       <c r="S235" s="1">
-        <v>19.5</v>
+        <v>24.54</v>
       </c>
       <c r="T235" s="1">
-        <v>19.5</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="236" ht="13.5" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E236" s="1">
-        <v>36.0</v>
+        <v>80.0</v>
       </c>
       <c r="F236" s="1">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="G236" s="1">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="H236" s="1">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="I236" s="1">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="J236" s="1">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="K236" s="1">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="L236" s="1">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="M236" s="1">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="N236" s="1">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="O236" s="1">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="P236" s="1">
         <v>13.0</v>
@@ -11809,700 +11970,700 @@
         <v>13.0</v>
       </c>
       <c r="R236" s="1">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="S236" s="1">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="T236" s="1">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="237" ht="13.5" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E237" s="1">
-        <v>95.0</v>
+        <v>60.0</v>
       </c>
       <c r="F237" s="1">
-        <v>95.0</v>
+        <v>47.0</v>
       </c>
       <c r="G237" s="1">
-        <v>87.0</v>
+        <v>55.0</v>
       </c>
       <c r="H237" s="1">
-        <v>86.0</v>
+        <v>55.0</v>
       </c>
       <c r="I237" s="1">
-        <v>86.0</v>
+        <v>45.0</v>
       </c>
       <c r="J237" s="1">
-        <v>102.0</v>
+        <v>33.0</v>
       </c>
       <c r="K237" s="1">
-        <v>102.0</v>
+        <v>33.0</v>
       </c>
       <c r="L237" s="1">
-        <v>102.0</v>
+        <v>33.0</v>
       </c>
       <c r="M237" s="1">
-        <v>102.0</v>
+        <v>35.0</v>
       </c>
       <c r="N237" s="1">
-        <v>102.0</v>
+        <v>34.0</v>
       </c>
       <c r="O237" s="1">
-        <v>101.0</v>
+        <v>34.0</v>
       </c>
       <c r="P237" s="1">
-        <v>101.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q237" s="1">
-        <v>87.0</v>
+        <v>28.0</v>
       </c>
       <c r="R237" s="1">
-        <v>99.0</v>
+        <v>22.0</v>
       </c>
       <c r="S237" s="1">
-        <v>99.0</v>
+        <v>23.0</v>
       </c>
       <c r="T237" s="1">
-        <v>99.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="238" ht="13.5" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E238" s="1">
-        <v>45.0</v>
+        <v>138.0</v>
       </c>
       <c r="F238" s="1">
-        <v>45.0</v>
+        <v>138.0</v>
       </c>
       <c r="G238" s="1">
-        <v>45.0</v>
+        <v>103.0</v>
       </c>
       <c r="H238" s="1">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
       <c r="I238" s="1">
-        <v>38.0</v>
+        <v>73.0</v>
       </c>
       <c r="J238" s="1">
         <v>39.0</v>
       </c>
       <c r="K238" s="1">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="L238" s="1">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="M238" s="1">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="N238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="O238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="P238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="Q238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="R238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="S238" s="1">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="T238" s="1">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="239" ht="13.5" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E239" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="F239" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="G239" s="1">
-        <v>41.0</v>
+        <v>51</v>
       </c>
       <c r="H239" s="1">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="I239" s="1">
-        <v>41.0</v>
+        <v>69.0</v>
       </c>
       <c r="J239" s="1">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="K239" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="L239" s="1">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="M239" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="N239" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="O239" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="P239" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q239" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="R239" s="1">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="S239" s="1">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="T239" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="240" ht="13.5" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E240" s="1">
         <v>43.0</v>
       </c>
       <c r="F240" s="1">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="G240" s="1">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="H240" s="1">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="I240" s="1">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="J240" s="1">
-        <v>13.0</v>
+        <v>37.0</v>
       </c>
       <c r="K240" s="1">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="L240" s="1">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="M240" s="1">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="N240" s="1">
-        <v>13.0</v>
+        <v>37.0</v>
       </c>
       <c r="O240" s="1">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="P240" s="1">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q240" s="1">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="R240" s="1">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
       <c r="S240" s="1">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
       <c r="T240" s="1">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="241" ht="13.5" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E241" s="1">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="F241" s="1">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="G241" s="1">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="H241" s="1">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="I241" s="1">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="J241" s="1">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="K241" s="1">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="L241" s="1">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="M241" s="1">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="N241" s="1">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="O241" s="1">
-        <v>39.0</v>
+        <v>11.0</v>
       </c>
       <c r="P241" s="1">
-        <v>39.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q241" s="1">
-        <v>35.0</v>
+        <v>8.5</v>
       </c>
       <c r="R241" s="1">
-        <v>35.0</v>
+        <v>8.5</v>
       </c>
       <c r="S241" s="1">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="T241" s="1">
-        <v>32.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="242" ht="13.5" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E242" s="1">
+        <v>177.0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>179.0</v>
+      </c>
+      <c r="G242" s="1">
+        <v>179.0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="J242" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="K242" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="L242" s="1">
         <v>21.0</v>
       </c>
-      <c r="F242" s="1">
+      <c r="M242" s="1">
         <v>21.0</v>
       </c>
-      <c r="G242" s="1">
+      <c r="N242" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="O242" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="P242" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="R242" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="S242" s="1">
         <v>17.0</v>
       </c>
-      <c r="H242" s="1">
+      <c r="T242" s="1">
         <v>17.0</v>
-      </c>
-      <c r="I242" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="J242" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="K242" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="L242" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="M242" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="N242" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="O242" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="P242" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="Q242" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="R242" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="S242" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="T242" s="1">
-        <v>14.0</v>
       </c>
     </row>
     <row r="243" ht="13.5" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E243" s="1">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="F243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="G243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="H243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="I243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="J243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="K243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="L243" s="1">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="M243" s="1">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="N243" s="1">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
       <c r="O243" s="1">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="P243" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q243" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="R243" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="S243" s="1">
-        <v>15.0</v>
+        <v>18.5</v>
       </c>
       <c r="T243" s="1">
-        <v>15.0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="244" ht="13.5" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O244" s="1">
-        <v>76.95</v>
+        <v>30.3</v>
       </c>
       <c r="P244" s="1">
-        <v>53.94</v>
+        <v>30.3</v>
       </c>
       <c r="Q244" s="1">
-        <v>49.26</v>
+        <v>30.3</v>
       </c>
       <c r="R244" s="1">
-        <v>26.3</v>
+        <v>24.92</v>
       </c>
       <c r="S244" s="1">
-        <v>24.54</v>
+        <v>18.92</v>
       </c>
       <c r="T244" s="1">
-        <v>21.0</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="245" ht="13.5" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E245" s="1">
-        <v>80.0</v>
+        <v>100.5</v>
       </c>
       <c r="F245" s="1">
-        <v>27.0</v>
+        <v>100.5</v>
       </c>
       <c r="G245" s="1">
-        <v>17.0</v>
+        <v>104.5</v>
       </c>
       <c r="H245" s="1">
-        <v>17.0</v>
+        <v>74.5</v>
       </c>
       <c r="I245" s="1">
-        <v>14.0</v>
+        <v>74.5</v>
       </c>
       <c r="J245" s="1">
-        <v>14.0</v>
+        <v>67.0</v>
       </c>
       <c r="K245" s="1">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="L245" s="1">
-        <v>13.0</v>
+        <v>42.5</v>
       </c>
       <c r="M245" s="1">
-        <v>13.0</v>
+        <v>41.5</v>
       </c>
       <c r="N245" s="1">
-        <v>13.0</v>
+        <v>41.5</v>
       </c>
       <c r="O245" s="1">
-        <v>13.0</v>
+        <v>41.5</v>
       </c>
       <c r="P245" s="1">
-        <v>13.0</v>
+        <v>41.5</v>
       </c>
       <c r="Q245" s="1">
-        <v>13.0</v>
+        <v>41.5</v>
       </c>
       <c r="R245" s="1">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="S245" s="1">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
       <c r="T245" s="1">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="246" ht="13.5" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E246" s="1">
-        <v>60.0</v>
+        <v>37.0</v>
       </c>
       <c r="F246" s="1">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="G246" s="1">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="H246" s="1">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="I246" s="1">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="J246" s="1">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K246" s="1">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L246" s="1">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="M246" s="1">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="N246" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="O246" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="P246" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="R246" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="S246" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="T246" s="1">
         <v>34.0</v>
-      </c>
-      <c r="O246" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="P246" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="Q246" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="R246" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="S246" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="T246" s="1">
-        <v>23.0</v>
       </c>
     </row>
     <row r="247" ht="13.5" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E247" s="1">
-        <v>138.0</v>
+        <v>18.0</v>
       </c>
       <c r="F247" s="1">
-        <v>138.0</v>
+        <v>18.0</v>
       </c>
       <c r="G247" s="1">
-        <v>103.0</v>
+        <v>18.0</v>
       </c>
       <c r="H247" s="1">
-        <v>73.0</v>
+        <v>16.0</v>
       </c>
       <c r="I247" s="1">
-        <v>73.0</v>
+        <v>16.0</v>
       </c>
       <c r="J247" s="1">
-        <v>39.0</v>
+        <v>14.0</v>
       </c>
       <c r="K247" s="1">
-        <v>39.0</v>
+        <v>7.0</v>
       </c>
       <c r="L247" s="1">
-        <v>39.0</v>
+        <v>7.0</v>
       </c>
       <c r="M247" s="1">
-        <v>39.0</v>
+        <v>7.0</v>
       </c>
       <c r="N247" s="1">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="O247" s="1">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="P247" s="1">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q247" s="1">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="R247" s="1">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="S247" s="1">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="T247" s="1">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="248" ht="13.5" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="E248" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="G248" s="1">
+        <v>57.0</v>
       </c>
       <c r="H248" s="1">
-        <v>69.0</v>
+        <v>57.0</v>
       </c>
       <c r="I248" s="1">
-        <v>69.0</v>
+        <v>58.0</v>
       </c>
       <c r="J248" s="1">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="K248" s="1">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="L248" s="1">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="M248" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="N248" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O248" s="1">
         <v>6.0</v>
@@ -12520,863 +12681,344 @@
         <v>6.0</v>
       </c>
       <c r="T248" s="1">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="249" ht="13.5" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E249" s="1">
-        <v>43.0</v>
+        <v>11.0</v>
       </c>
       <c r="F249" s="1">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="G249" s="1">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="H249" s="1">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="I249" s="1">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="J249" s="1">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="K249" s="1">
-        <v>36.0</v>
+        <v>10.0</v>
       </c>
       <c r="L249" s="1">
-        <v>36.0</v>
+        <v>9.0</v>
       </c>
       <c r="M249" s="1">
-        <v>36.0</v>
+        <v>8.0</v>
       </c>
       <c r="N249" s="1">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="O249" s="1">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="P249" s="1">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q249" s="1">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="R249" s="1">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="S249" s="1">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="T249" s="1">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="250" ht="13.5" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E250" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="G250" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="H250" s="1">
         <v>33.0</v>
       </c>
-      <c r="F250" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="G250" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="H250" s="1">
-        <v>42.0</v>
-      </c>
       <c r="I250" s="1">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="J250" s="1">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="K250" s="1">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="L250" s="1">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="M250" s="1">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="N250" s="1">
-        <v>8.0</v>
+        <v>29.0</v>
       </c>
       <c r="O250" s="1">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="P250" s="1">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="Q250" s="1">
-        <v>8.5</v>
+        <v>29.0</v>
       </c>
       <c r="R250" s="1">
-        <v>8.5</v>
+        <v>29.0</v>
       </c>
       <c r="S250" s="1">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="T250" s="1">
-        <v>11.0</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="251" ht="13.5" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E251" s="1">
-        <v>177.0</v>
+        <v>36.0</v>
       </c>
       <c r="F251" s="1">
-        <v>179.0</v>
+        <v>36.0</v>
       </c>
       <c r="G251" s="1">
-        <v>179.0</v>
+        <v>36.0</v>
       </c>
       <c r="H251" s="1">
-        <v>117.0</v>
+        <v>30.0</v>
       </c>
       <c r="I251" s="1">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="J251" s="1">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="K251" s="1">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="L251" s="1">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="M251" s="1">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="N251" s="1">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="O251" s="1">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="P251" s="1">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="Q251" s="1">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="R251" s="1">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="S251" s="1">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="T251" s="1">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="252" ht="13.5" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E252" s="1">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="F252" s="1">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="G252" s="1">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="H252" s="1">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="I252" s="1">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="J252" s="1">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="K252" s="1">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="L252" s="1">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="M252" s="1">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="N252" s="1">
-        <v>29.0</v>
+        <v>18.5</v>
       </c>
       <c r="O252" s="1">
-        <v>17.0</v>
+        <v>8.5</v>
       </c>
       <c r="P252" s="1">
-        <v>17.0</v>
+        <v>8.5</v>
       </c>
       <c r="Q252" s="1">
-        <v>17.0</v>
+        <v>8.5</v>
       </c>
       <c r="R252" s="1">
-        <v>17.0</v>
+        <v>8.5</v>
       </c>
       <c r="S252" s="1">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="T252" s="1">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="253" ht="13.5" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="E253" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="G253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="J253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="K253" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="L253" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="M253" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="N253" s="1">
+        <v>87.0</v>
       </c>
       <c r="O253" s="1">
-        <v>30.3</v>
+        <v>91.0</v>
       </c>
       <c r="P253" s="1">
-        <v>30.3</v>
+        <v>91.0</v>
       </c>
       <c r="Q253" s="1">
-        <v>30.3</v>
+        <v>91.0</v>
       </c>
       <c r="R253" s="1">
-        <v>24.92</v>
+        <v>91.0</v>
       </c>
       <c r="S253" s="1">
-        <v>18.92</v>
+        <v>61.0</v>
       </c>
       <c r="T253" s="1">
-        <v>10.92</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="254" ht="13.5" customHeight="1">
-      <c r="A254" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E254" s="1">
-        <v>100.5</v>
-      </c>
-      <c r="F254" s="1">
-        <v>100.5</v>
-      </c>
-      <c r="G254" s="1">
-        <v>104.5</v>
-      </c>
-      <c r="H254" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="I254" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="J254" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="K254" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="L254" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="M254" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="N254" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="O254" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="P254" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="Q254" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="R254" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="S254" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="T254" s="1">
-        <v>26.0</v>
-      </c>
+      <c r="B254" s="2"/>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" ht="13.5" customHeight="1">
-      <c r="A255" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E255" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="F255" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="G255" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="H255" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="I255" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="J255" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="K255" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="L255" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="M255" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="N255" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="O255" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="P255" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="Q255" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="R255" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="S255" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="T255" s="1">
-        <v>34.0</v>
-      </c>
+      <c r="B255" s="2"/>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" ht="13.5" customHeight="1">
-      <c r="A256" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E256" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="F256" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="G256" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="H256" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="I256" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="J256" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="K256" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="L256" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="M256" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="N256" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="O256" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P256" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Q256" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="R256" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="S256" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="T256" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="B256" s="2"/>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" ht="13.5" customHeight="1">
-      <c r="A257" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E257" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="F257" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="G257" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="H257" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="I257" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="J257" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="K257" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="L257" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="M257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="N257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="O257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="Q257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="R257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S257" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="T257" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="258" ht="13.5" customHeight="1">
-      <c r="A258" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E258" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="F258" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="G258" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="H258" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="I258" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="J258" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="K258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="L258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="N258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="O258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="P258" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="Q258" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="R258" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="S258" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="T258" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="259" ht="13.5" customHeight="1">
-      <c r="A259" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E259" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="F259" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="G259" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="H259" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="I259" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="J259" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="K259" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="L259" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="M259" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="N259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="O259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="P259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="Q259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="R259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="S259" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="T259" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="260" ht="13.5" customHeight="1">
-      <c r="A260" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E260" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="F260" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="G260" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="H260" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="I260" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="J260" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="K260" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="L260" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="M260" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="N260" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="O260" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="P260" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="Q260" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="R260" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="S260" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="T260" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="261" ht="13.5" customHeight="1">
-      <c r="A261" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E261" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="F261" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="G261" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="H261" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="I261" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="J261" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="K261" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="L261" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="M261" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="N261" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="O261" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="P261" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="Q261" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="R261" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="S261" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="T261" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="262" ht="13.5" customHeight="1">
-      <c r="A262" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E262" s="1">
-        <v>132.0</v>
-      </c>
-      <c r="F262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="G262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="H262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="I262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="J262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="K262" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="L262" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="M262" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="N262" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="O262" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="P262" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="Q262" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="R262" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="S262" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="T262" s="1">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="263" ht="13.5" customHeight="1">
-      <c r="B263" s="2"/>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" ht="13.5" customHeight="1">
-      <c r="B264" s="2"/>
-      <c r="D264" s="2"/>
-    </row>
-    <row r="265" ht="13.5" customHeight="1">
-      <c r="B265" s="2"/>
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266" ht="13.5" customHeight="1">
-      <c r="B266" s="2"/>
-      <c r="D266" s="2"/>
-    </row>
+      <c r="B257" s="2"/>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
     <row r="267" ht="13.5" customHeight="1"/>
     <row r="268" ht="13.5" customHeight="1"/>
     <row r="269" ht="13.5" customHeight="1"/>
@@ -14093,26 +13735,16 @@
     <row r="980" ht="13.5" customHeight="1"/>
     <row r="981" ht="13.5" customHeight="1"/>
     <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{896DE004-8779-4580-86D5-0E4ECEAA9D97}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$T$262">
+    <customSheetView guid="{45E78D6B-A4A9-4F00-8FEA-B2E59FF8FD30}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$T$253">
         <filterColumn colId="2">
-          <filters>
+          <filters blank="1">
             <filter val="Benin"/>
             <filter val="Cameroon"/>
             <filter val="Cambodia"/>
             <filter val="Guinea"/>
-            <filter val="Sierra Leone"/>
             <filter val="Armenia"/>
             <filter val="Mozambique"/>
             <filter val="Malawi"/>
@@ -14146,6 +13778,18 @@
         </ext>
       </extLst>
     </customSheetView>
+    <customSheetView guid="{20322716-6744-45A6-99D3-B61CF8BC0F25}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$T$253">
+        <sortState ref="A1:T253">
+          <sortCondition ref="C1:C253"/>
+        </sortState>
+      </autoFilter>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="945986607"/>
+        </ext>
+      </extLst>
+    </customSheetView>
   </customSheetViews>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14171,88 +13815,88 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
@@ -14260,27 +13904,27 @@
         <v>85</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -14288,7 +13932,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
@@ -14296,169 +13940,169 @@
         <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
@@ -14466,43 +14110,43 @@
         <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
@@ -14510,43 +14154,43 @@
         <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
@@ -14554,43 +14198,43 @@
         <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -14598,43 +14242,43 @@
         <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
@@ -14642,195 +14286,195 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -14841,46 +14485,46 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1"/>
